--- a/processed_data/data_gazepath/data_elp-georgetown.xlsx
+++ b/processed_data/data_gazepath/data_elp-georgetown.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M271"/>
+  <dimension ref="A1:M289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,11 +592,19 @@
       <c r="E6">
         <v>5</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>7001.000000000001</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -719,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>647.9999999999991</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>614.6666666666661</v>
@@ -922,7 +930,7 @@
         <v>1647.999999999999</v>
       </c>
       <c r="K14">
-        <v>2523.000000000001</v>
+        <v>699.0000000000005</v>
       </c>
     </row>
     <row r="15">
@@ -963,7 +971,7 @@
         <v>1889.666666666666</v>
       </c>
       <c r="K15">
-        <v>1924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1001,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1840.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>590.6666666666661</v>
@@ -1045,7 +1053,7 @@
         <v>1624</v>
       </c>
       <c r="K17">
-        <v>2165.666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1104,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1765.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>698.9999999999991</v>
@@ -1523,10 +1531,10 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>2073</v>
+        <v>324</v>
       </c>
       <c r="K30">
-        <v>1015.666666666668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1860,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>1856.333333333332</v>
+        <v>182.3333333333321</v>
       </c>
       <c r="K39">
         <v>1498</v>
@@ -1901,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>3706.333333333334</v>
+        <v>1440.666666666667</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2024,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>3405.333333333333</v>
+        <v>1989.666666666666</v>
       </c>
       <c r="K43">
         <v>1497.999999999999</v>
@@ -2062,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>1723.000000000001</v>
@@ -2091,11 +2099,19 @@
       <c r="E45">
         <v>2</v>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G45">
+        <v>6276</v>
+      </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>989.6666666666652</v>
@@ -2139,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="J46">
-        <v>1856.333333333334</v>
+        <v>524</v>
       </c>
       <c r="K46">
         <v>424</v>
@@ -2206,25 +2222,17 @@
       <c r="E48">
         <v>5</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G48">
-        <v>8167.666666666667</v>
-      </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>473.0000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2370,16 +2378,8 @@
       <c r="E52">
         <v>3</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G52">
-        <v>9259.333333333334</v>
-      </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>2613.666666666666</v>
+        <v>1173</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>3030.333333333333</v>
+        <v>956.333333333333</v>
       </c>
       <c r="K68">
         <v>1481.333333333333</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>3089.666666666667</v>
+        <v>949</v>
       </c>
       <c r="K70">
         <v>2032.333333333334</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>3214.666666666667</v>
+        <v>1632.333333333333</v>
       </c>
       <c r="K72">
         <v>682.3333333333339</v>
@@ -3076,11 +3076,11 @@
         <v>8989</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Ord4_T1_R.wmv</t>
+          <t>Ord2_T1_L.wmv</t>
         </is>
       </c>
       <c r="E74">
@@ -3117,11 +3117,11 @@
         <v>8989</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Ord4_T2_L.wmv</t>
+          <t>Ord2_T2_R.wmv</t>
         </is>
       </c>
       <c r="E75">
@@ -3158,11 +3158,11 @@
         <v>8989</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ord4_T3_L.wmv</t>
+          <t>Ord2_T3_R.wmv</t>
         </is>
       </c>
       <c r="E76">
@@ -3186,7 +3186,7 @@
         <v>1379.333333333334</v>
       </c>
       <c r="K76">
-        <v>1606.333333333333</v>
+        <v>482.333333333333</v>
       </c>
     </row>
     <row r="77">
@@ -3199,11 +3199,11 @@
         <v>8989</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ord4_T4_R.wmv</t>
+          <t>Ord2_T4_L.wmv</t>
         </is>
       </c>
       <c r="E77">
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>1547</v>
@@ -3240,11 +3240,11 @@
         <v>8989</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Ord4_T5_L.wmv</t>
+          <t>Ord2_T5_R.wmv</t>
         </is>
       </c>
       <c r="E78">
@@ -3281,11 +3281,11 @@
         <v>8989</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Ord4_T6_R.wmv</t>
+          <t>Ord2_T6_L.wmv</t>
         </is>
       </c>
       <c r="E79">
@@ -3330,13 +3330,13 @@
         </is>
       </c>
       <c r="G80">
-        <v>7342.666666666667</v>
+        <v>9334.333333333334</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>2082.333333333333</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -3530,11 +3530,11 @@
         <v>8709</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ord1_T1_R.wmv</t>
+          <t>Ord4_T1_R.wmv</t>
         </is>
       </c>
       <c r="E86">
@@ -3571,11 +3571,11 @@
         <v>8709</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ord1_T2_L.wmv</t>
+          <t>Ord4_T2_L.wmv</t>
         </is>
       </c>
       <c r="E87">
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="J87">
-        <v>2981.333333333334</v>
+        <v>1107.333333333334</v>
       </c>
       <c r="K87">
         <v>1448</v>
@@ -3612,11 +3612,11 @@
         <v>8709</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ord1_T3_L.wmv</t>
+          <t>Ord4_T3_L.wmv</t>
         </is>
       </c>
       <c r="E88">
@@ -3633,11 +3633,11 @@
         <v>8709</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ord1_T4_R.wmv</t>
+          <t>Ord4_T4_R.wmv</t>
         </is>
       </c>
       <c r="E89">
@@ -3653,7 +3653,7 @@
         <v>2431.333333333334</v>
       </c>
       <c r="K89">
-        <v>2430.333333333334</v>
+        <v>698</v>
       </c>
     </row>
     <row r="90">
@@ -3666,11 +3666,11 @@
         <v>8709</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Ord1_T5_L.wmv</t>
+          <t>Ord4_T5_L.wmv</t>
         </is>
       </c>
       <c r="E90">
@@ -3691,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2756.333333333333</v>
+        <v>265.6666666666661</v>
       </c>
       <c r="K90">
-        <v>1906.333333333334</v>
+        <v>157.3333333333339</v>
       </c>
     </row>
     <row r="91">
@@ -3707,27 +3707,35 @@
         <v>8709</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Ord1_T6_R.wmv</t>
+          <t>Ord4_T6_R.wmv</t>
         </is>
       </c>
       <c r="E91">
         <v>6</v>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G91">
+        <v>5542.666666666667</v>
+      </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>1874</v>
       </c>
       <c r="K91">
-        <v>3279.333333333333</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="92">
@@ -3740,11 +3748,11 @@
         <v>8731</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ord3_T1_L.wmv</t>
+          <t>Ord1_T1_R.wmv</t>
         </is>
       </c>
       <c r="E92">
@@ -3781,11 +3789,11 @@
         <v>8731</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ord3_T2_R.wmv</t>
+          <t>Ord1_T2_L.wmv</t>
         </is>
       </c>
       <c r="E93">
@@ -3822,11 +3830,11 @@
         <v>8731</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ord3_T3_R.wmv</t>
+          <t>Ord1_T3_L.wmv</t>
         </is>
       </c>
       <c r="E94">
@@ -3863,11 +3871,11 @@
         <v>8731</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Ord3_T4_L.wmv</t>
+          <t>Ord1_T4_R.wmv</t>
         </is>
       </c>
       <c r="E95">
@@ -3896,11 +3904,11 @@
         <v>8731</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Ord3_T5_R.wmv</t>
+          <t>Ord1_T5_L.wmv</t>
         </is>
       </c>
       <c r="E96">
@@ -3937,11 +3945,11 @@
         <v>8731</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ord3_T6_L.wmv</t>
+          <t>Ord1_T6_R.wmv</t>
         </is>
       </c>
       <c r="E97">
@@ -3975,14 +3983,14 @@
         </is>
       </c>
       <c r="B98">
-        <v>8748</v>
+        <v>8735</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ord2_T1_L.wmv</t>
+          <t>Ord3_T1_L.wmv</t>
         </is>
       </c>
       <c r="E98">
@@ -4008,18 +4016,38 @@
         </is>
       </c>
       <c r="B99">
-        <v>8748</v>
+        <v>8735</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ord2_T2_R.wmv</t>
+          <t>Ord3_T2_R.wmv</t>
         </is>
       </c>
       <c r="E99">
         <v>2</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G99">
+        <v>9001</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>299</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4029,18 +4057,38 @@
         </is>
       </c>
       <c r="B100">
-        <v>8748</v>
+        <v>8735</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ord2_T3_R.wmv</t>
+          <t>Ord3_T3_R.wmv</t>
         </is>
       </c>
       <c r="E100">
         <v>3</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G100">
+        <v>7759.333333333334</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>614.666666666667</v>
+      </c>
+      <c r="K100">
+        <v>165.6666666666661</v>
       </c>
     </row>
     <row r="101">
@@ -4050,14 +4098,14 @@
         </is>
       </c>
       <c r="B101">
-        <v>8748</v>
+        <v>8735</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Ord2_T4_L.wmv</t>
+          <t>Ord3_T4_L.wmv</t>
         </is>
       </c>
       <c r="E101">
@@ -4083,24 +4131,38 @@
         </is>
       </c>
       <c r="B102">
-        <v>8748</v>
+        <v>8735</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Ord2_T5_R.wmv</t>
+          <t>Ord3_T5_R.wmv</t>
         </is>
       </c>
       <c r="E102">
         <v>5</v>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G102">
+        <v>8501</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>640.6666666666679</v>
       </c>
     </row>
     <row r="103">
@@ -4110,19 +4172,31 @@
         </is>
       </c>
       <c r="B103">
-        <v>8748</v>
+        <v>8735</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Ord2_T6_L.wmv</t>
+          <t>Ord3_T6_L.wmv</t>
         </is>
       </c>
       <c r="E103">
         <v>6</v>
       </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4131,7 +4205,7 @@
         </is>
       </c>
       <c r="B104">
-        <v>8747</v>
+        <v>8748</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -4144,22 +4218,14 @@
       <c r="E104">
         <v>1</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G104">
-        <v>6842.666666666667</v>
-      </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>997.9999999999991</v>
+        <v>0</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4172,7 +4238,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>8747</v>
+        <v>8748</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -4184,26 +4250,6 @@
       </c>
       <c r="E105">
         <v>2</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G105">
-        <v>9001</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>390.6666666666679</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4213,7 +4259,7 @@
         </is>
       </c>
       <c r="B106">
-        <v>8747</v>
+        <v>8748</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -4225,18 +4271,6 @@
       </c>
       <c r="E106">
         <v>3</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4246,7 +4280,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>8747</v>
+        <v>8748</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -4259,25 +4293,17 @@
       <c r="E107">
         <v>4</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G107">
-        <v>8976</v>
-      </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4287,7 +4313,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>8747</v>
+        <v>8748</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -4300,22 +4326,8 @@
       <c r="E108">
         <v>5</v>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G108">
-        <v>6401</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
       <c r="J108">
-        <v>1049</v>
+        <v>0</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -4328,7 +4340,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>8747</v>
+        <v>8748</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -4341,26 +4353,6 @@
       <c r="E109">
         <v>6</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G109">
-        <v>9684.333333333334</v>
-      </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>1339.666666666667</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4369,14 +4361,14 @@
         </is>
       </c>
       <c r="B110">
-        <v>8719</v>
+        <v>8747</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ord4_T1_R.wmv</t>
+          <t>Ord2_T1_L.wmv</t>
         </is>
       </c>
       <c r="E110">
@@ -4388,7 +4380,7 @@
         </is>
       </c>
       <c r="G110">
-        <v>5242.666666666667</v>
+        <v>6842.666666666667</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -4397,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>3798.000000000001</v>
+        <v>997.9999999999991</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -4410,14 +4402,14 @@
         </is>
       </c>
       <c r="B111">
-        <v>8719</v>
+        <v>8747</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Ord4_T2_L.wmv</t>
+          <t>Ord2_T2_R.wmv</t>
         </is>
       </c>
       <c r="E111">
@@ -4429,19 +4421,19 @@
         </is>
       </c>
       <c r="G111">
-        <v>5159.333333333334</v>
+        <v>9001</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>2006.333333333333</v>
+        <v>390.6666666666679</v>
       </c>
       <c r="K111">
-        <v>1157.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4451,38 +4443,30 @@
         </is>
       </c>
       <c r="B112">
-        <v>8719</v>
+        <v>8747</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Ord4_T3_L.wmv</t>
+          <t>Ord2_T3_R.wmv</t>
         </is>
       </c>
       <c r="E112">
         <v>3</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G112">
-        <v>5809.333333333334</v>
-      </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>2548</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>1598.000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4492,38 +4476,30 @@
         </is>
       </c>
       <c r="B113">
-        <v>8719</v>
+        <v>8747</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Ord4_T4_R.wmv</t>
+          <t>Ord2_T4_L.wmv</t>
         </is>
       </c>
       <c r="E113">
         <v>4</v>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G113">
-        <v>6601</v>
-      </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>2180.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>2105.333333333334</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114">
@@ -4533,14 +4509,14 @@
         </is>
       </c>
       <c r="B114">
-        <v>8719</v>
+        <v>8747</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Ord4_T5_L.wmv</t>
+          <t>Ord2_T5_R.wmv</t>
         </is>
       </c>
       <c r="E114">
@@ -4548,23 +4524,23 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G114">
-        <v>5434.333333333334</v>
+        <v>6401</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>2414.666666666667</v>
+        <v>1049</v>
       </c>
       <c r="K114">
-        <v>2582.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4574,14 +4550,14 @@
         </is>
       </c>
       <c r="B115">
-        <v>8719</v>
+        <v>8747</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Ord4_T6_R.wmv</t>
+          <t>Ord2_T6_L.wmv</t>
         </is>
       </c>
       <c r="E115">
@@ -4589,23 +4565,23 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G115">
-        <v>6767.666666666667</v>
+        <v>7026.000000000001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>1456.333333333334</v>
+        <v>1339.666666666667</v>
       </c>
       <c r="K115">
-        <v>3197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4615,14 +4591,14 @@
         </is>
       </c>
       <c r="B116">
-        <v>8911</v>
+        <v>8719</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Ord1_T1_R.wmv</t>
+          <t>Ord4_T1_R.wmv</t>
         </is>
       </c>
       <c r="E116">
@@ -4634,16 +4610,16 @@
         </is>
       </c>
       <c r="G116">
-        <v>8484.333333333334</v>
+        <v>5242.666666666667</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1257.333333333334</v>
+        <v>407.3333333333339</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -4656,14 +4632,14 @@
         </is>
       </c>
       <c r="B117">
-        <v>8911</v>
+        <v>8719</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Ord1_T2_L.wmv</t>
+          <t>Ord4_T2_L.wmv</t>
         </is>
       </c>
       <c r="E117">
@@ -4675,19 +4651,19 @@
         </is>
       </c>
       <c r="G117">
-        <v>7476</v>
+        <v>5159.333333333334</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>649</v>
+        <v>374</v>
       </c>
       <c r="K117">
-        <v>524</v>
+        <v>1157.333333333334</v>
       </c>
     </row>
     <row r="118">
@@ -4697,14 +4673,14 @@
         </is>
       </c>
       <c r="B118">
-        <v>8911</v>
+        <v>8719</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Ord1_T3_L.wmv</t>
+          <t>Ord4_T3_L.wmv</t>
         </is>
       </c>
       <c r="E118">
@@ -4716,7 +4692,7 @@
         </is>
       </c>
       <c r="G118">
-        <v>8992.666666666668</v>
+        <v>5809.333333333334</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -4725,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1164.666666666666</v>
+        <v>1249</v>
       </c>
       <c r="K118">
-        <v>440.6666666666661</v>
+        <v>1598.000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4738,14 +4714,14 @@
         </is>
       </c>
       <c r="B119">
-        <v>8911</v>
+        <v>8719</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Ord1_T4_R.wmv</t>
+          <t>Ord4_T4_R.wmv</t>
         </is>
       </c>
       <c r="E119">
@@ -4753,23 +4729,23 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G119">
-        <v>9576</v>
+        <v>6601</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>2180.333333333334</v>
       </c>
       <c r="K119">
-        <v>540.6666666666679</v>
+        <v>2105.333333333334</v>
       </c>
     </row>
     <row r="120">
@@ -4779,14 +4755,14 @@
         </is>
       </c>
       <c r="B120">
-        <v>8911</v>
+        <v>8719</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Ord1_T5_L.wmv</t>
+          <t>Ord4_T5_L.wmv</t>
         </is>
       </c>
       <c r="E120">
@@ -4794,20 +4770,20 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G120">
-        <v>5792.666666666667</v>
+        <v>5434.333333333334</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>2239.666666666666</v>
+        <v>2414.666666666667</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -4820,14 +4796,14 @@
         </is>
       </c>
       <c r="B121">
-        <v>8911</v>
+        <v>8719</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Ord1_T6_R.wmv</t>
+          <t>Ord4_T6_R.wmv</t>
         </is>
       </c>
       <c r="E121">
@@ -4835,23 +4811,23 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G121">
-        <v>5901.000000000001</v>
+        <v>6767.666666666667</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
-        <v>249</v>
+        <v>1456.333333333334</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="122">
@@ -4861,14 +4837,14 @@
         </is>
       </c>
       <c r="B122">
-        <v>8813</v>
+        <v>8911</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Ord4_T1_R.wmv</t>
+          <t>Ord1_T1_R.wmv</t>
         </is>
       </c>
       <c r="E122">
@@ -4880,16 +4856,16 @@
         </is>
       </c>
       <c r="G122">
-        <v>6484.333333333334</v>
+        <v>8484.333333333334</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>647.9999999999991</v>
+        <v>1257.333333333334</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -4902,14 +4878,14 @@
         </is>
       </c>
       <c r="B123">
-        <v>8813</v>
+        <v>8911</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Ord4_T2_L.wmv</t>
+          <t>Ord1_T2_L.wmv</t>
         </is>
       </c>
       <c r="E123">
@@ -4921,7 +4897,7 @@
         </is>
       </c>
       <c r="G123">
-        <v>8234.333333333334</v>
+        <v>7476</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -4930,10 +4906,10 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>999</v>
+        <v>649</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>524</v>
       </c>
     </row>
     <row r="124">
@@ -4943,14 +4919,14 @@
         </is>
       </c>
       <c r="B124">
-        <v>8813</v>
+        <v>8911</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Ord4_T3_L.wmv</t>
+          <t>Ord1_T3_L.wmv</t>
         </is>
       </c>
       <c r="E124">
@@ -4958,23 +4934,23 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G124">
-        <v>6342.666666666667</v>
+        <v>6301</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>207.333333333333</v>
+        <v>1164.666666666666</v>
       </c>
       <c r="K124">
-        <v>474</v>
+        <v>440.6666666666661</v>
       </c>
     </row>
     <row r="125">
@@ -4984,14 +4960,14 @@
         </is>
       </c>
       <c r="B125">
-        <v>8813</v>
+        <v>8911</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Ord4_T4_R.wmv</t>
+          <t>Ord1_T4_R.wmv</t>
         </is>
       </c>
       <c r="E125">
@@ -4999,23 +4975,23 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G125">
-        <v>6317.666666666667</v>
+        <v>9576</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
-        <v>1423.000000000001</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>540.6666666666679</v>
       </c>
     </row>
     <row r="126">
@@ -5025,14 +5001,14 @@
         </is>
       </c>
       <c r="B126">
-        <v>8813</v>
+        <v>8911</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Ord4_T5_L.wmv</t>
+          <t>Ord1_T5_L.wmv</t>
         </is>
       </c>
       <c r="E126">
@@ -5044,7 +5020,7 @@
         </is>
       </c>
       <c r="G126">
-        <v>5492.666666666667</v>
+        <v>5792.666666666667</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -5053,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>931.3333333333339</v>
+        <v>2239.666666666666</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -5066,14 +5042,14 @@
         </is>
       </c>
       <c r="B127">
-        <v>8813</v>
+        <v>8911</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Ord4_T6_R.wmv</t>
+          <t>Ord1_T6_R.wmv</t>
         </is>
       </c>
       <c r="E127">
@@ -5085,7 +5061,7 @@
         </is>
       </c>
       <c r="G127">
-        <v>5726</v>
+        <v>5901.000000000001</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -5094,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>515.666666666667</v>
+        <v>249</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -5107,14 +5083,14 @@
         </is>
       </c>
       <c r="B128">
-        <v>8988</v>
+        <v>8874</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Ord3_T1_L.wmv</t>
+          <t>Ord4_T1_R.wmv</t>
         </is>
       </c>
       <c r="E128">
@@ -5140,27 +5116,35 @@
         </is>
       </c>
       <c r="B129">
-        <v>8988</v>
+        <v>8874</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ord3_T2_R.wmv</t>
+          <t>Ord4_T2_L.wmv</t>
         </is>
       </c>
       <c r="E129">
         <v>2</v>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G129">
+        <v>7017.666666666667</v>
+      </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>257.3333333333339</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -5173,38 +5157,30 @@
         </is>
       </c>
       <c r="B130">
-        <v>8988</v>
+        <v>8874</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Ord3_T3_R.wmv</t>
+          <t>Ord4_T3_L.wmv</t>
         </is>
       </c>
       <c r="E130">
         <v>3</v>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G130">
-        <v>6609.333333333334</v>
-      </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>782.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5214,14 +5190,14 @@
         </is>
       </c>
       <c r="B131">
-        <v>8988</v>
+        <v>8874</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Ord3_T4_L.wmv</t>
+          <t>Ord4_T4_R.wmv</t>
         </is>
       </c>
       <c r="E131">
@@ -5247,35 +5223,27 @@
         </is>
       </c>
       <c r="B132">
-        <v>8988</v>
+        <v>8874</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ord3_T5_R.wmv</t>
+          <t>Ord4_T5_L.wmv</t>
         </is>
       </c>
       <c r="E132">
         <v>5</v>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G132">
-        <v>9159.333333333334</v>
-      </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>890.6666666666679</v>
+        <v>0</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -5288,14 +5256,14 @@
         </is>
       </c>
       <c r="B133">
-        <v>8988</v>
+        <v>8874</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Ord3_T6_L.wmv</t>
+          <t>Ord4_T6_R.wmv</t>
         </is>
       </c>
       <c r="E133">
@@ -5321,18 +5289,38 @@
         </is>
       </c>
       <c r="B134">
-        <v>8901</v>
+        <v>8813</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Ord2_T1_L.wmv</t>
+          <t>Ord3_T1_L.wmv</t>
         </is>
       </c>
       <c r="E134">
         <v>1</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G134">
+        <v>6484.333333333334</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>647.9999999999991</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5342,14 +5330,14 @@
         </is>
       </c>
       <c r="B135">
-        <v>8901</v>
+        <v>8813</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Ord2_T2_R.wmv</t>
+          <t>Ord3_T2_R.wmv</t>
         </is>
       </c>
       <c r="E135">
@@ -5361,7 +5349,7 @@
         </is>
       </c>
       <c r="G135">
-        <v>8417.666666666668</v>
+        <v>8234.333333333334</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -5370,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>174</v>
+        <v>999</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -5383,30 +5371,38 @@
         </is>
       </c>
       <c r="B136">
-        <v>8901</v>
+        <v>8813</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Ord2_T3_R.wmv</t>
+          <t>Ord3_T3_R.wmv</t>
         </is>
       </c>
       <c r="E136">
         <v>3</v>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G136">
+        <v>6342.666666666667</v>
+      </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>207.333333333333</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>474</v>
       </c>
     </row>
     <row r="137">
@@ -5416,14 +5412,14 @@
         </is>
       </c>
       <c r="B137">
-        <v>8901</v>
+        <v>8813</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Ord2_T4_L.wmv</t>
+          <t>Ord3_T4_L.wmv</t>
         </is>
       </c>
       <c r="E137">
@@ -5435,19 +5431,19 @@
         </is>
       </c>
       <c r="G137">
-        <v>5834.333333333334</v>
+        <v>6317.666666666667</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
       <c r="J137">
-        <v>365.666666666667</v>
+        <v>1423.000000000001</v>
       </c>
       <c r="K137">
-        <v>490.6666666666661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5457,14 +5453,14 @@
         </is>
       </c>
       <c r="B138">
-        <v>8901</v>
+        <v>8813</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Ord2_T5_R.wmv</t>
+          <t>Ord3_T5_R.wmv</t>
         </is>
       </c>
       <c r="E138">
@@ -5476,16 +5472,16 @@
         </is>
       </c>
       <c r="G138">
-        <v>6026</v>
+        <v>5492.666666666667</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>2713.666666666668</v>
+        <v>931.3333333333339</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -5498,14 +5494,14 @@
         </is>
       </c>
       <c r="B139">
-        <v>8901</v>
+        <v>8813</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Ord2_T6_L.wmv</t>
+          <t>Ord3_T6_L.wmv</t>
         </is>
       </c>
       <c r="E139">
@@ -5513,23 +5509,23 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G139">
-        <v>7434.333333333334</v>
+        <v>5726</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>240.666666666667</v>
+        <v>515.666666666667</v>
       </c>
       <c r="K139">
-        <v>1665.666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -5539,35 +5535,27 @@
         </is>
       </c>
       <c r="B140">
-        <v>8725</v>
+        <v>8988</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Ord3_T1_L.wmv</t>
+          <t>Ord2_T1_L.wmv</t>
         </is>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G140">
-        <v>5159.333333333334</v>
-      </c>
       <c r="H140">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
-        <v>3162.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -5580,38 +5568,30 @@
         </is>
       </c>
       <c r="B141">
-        <v>8725</v>
+        <v>8988</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ord3_T2_R.wmv</t>
+          <t>Ord2_T2_R.wmv</t>
         </is>
       </c>
       <c r="E141">
         <v>2</v>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G141">
-        <v>4926</v>
-      </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>1796.000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5621,14 +5601,14 @@
         </is>
       </c>
       <c r="B142">
-        <v>8725</v>
+        <v>8988</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Ord3_T3_R.wmv</t>
+          <t>Ord2_T3_R.wmv</t>
         </is>
       </c>
       <c r="E142">
@@ -5640,19 +5620,19 @@
         </is>
       </c>
       <c r="G142">
-        <v>7734.333333333334</v>
+        <v>6609.333333333334</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142">
-        <v>632.333333333333</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>1780.333333333334</v>
+        <v>782.333333333333</v>
       </c>
     </row>
     <row r="143">
@@ -5662,38 +5642,30 @@
         </is>
       </c>
       <c r="B143">
-        <v>8725</v>
+        <v>8988</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Ord3_T4_L.wmv</t>
+          <t>Ord2_T4_L.wmv</t>
         </is>
       </c>
       <c r="E143">
         <v>4</v>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G143">
-        <v>5792.666666666667</v>
-      </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>1346.999999999999</v>
+        <v>0</v>
       </c>
       <c r="K143">
-        <v>1040.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -5703,14 +5675,14 @@
         </is>
       </c>
       <c r="B144">
-        <v>8725</v>
+        <v>8988</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Ord3_T5_R.wmv</t>
+          <t>Ord2_T5_R.wmv</t>
         </is>
       </c>
       <c r="E144">
@@ -5722,19 +5694,19 @@
         </is>
       </c>
       <c r="G144">
-        <v>5184.333333333334</v>
+        <v>9159.333333333334</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1989.666666666666</v>
+        <v>890.6666666666679</v>
       </c>
       <c r="K144">
-        <v>849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -5744,38 +5716,30 @@
         </is>
       </c>
       <c r="B145">
-        <v>8725</v>
+        <v>8988</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Ord3_T6_L.wmv</t>
+          <t>Ord2_T6_L.wmv</t>
         </is>
       </c>
       <c r="E145">
         <v>6</v>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G145">
-        <v>8234.333333333334</v>
-      </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145">
-        <v>2697.000000000001</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>2638.666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -5785,38 +5749,18 @@
         </is>
       </c>
       <c r="B146">
-        <v>8955</v>
+        <v>8901</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Ord1_T1_R.wmv</t>
+          <t>Ord3_T1_L.wmv</t>
         </is>
       </c>
       <c r="E146">
         <v>1</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G146">
-        <v>6151</v>
-      </c>
-      <c r="H146">
-        <v>2</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>2689.666666666668</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5826,27 +5770,35 @@
         </is>
       </c>
       <c r="B147">
-        <v>8955</v>
+        <v>8901</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Ord1_T2_L.wmv</t>
+          <t>Ord3_T2_R.wmv</t>
         </is>
       </c>
       <c r="E147">
         <v>2</v>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G147">
+        <v>8417.666666666668</v>
+      </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -5859,38 +5811,30 @@
         </is>
       </c>
       <c r="B148">
-        <v>8955</v>
+        <v>8901</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Ord1_T3_L.wmv</t>
+          <t>Ord3_T3_R.wmv</t>
         </is>
       </c>
       <c r="E148">
         <v>3</v>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G148">
-        <v>6142.666666666667</v>
-      </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
-        <v>1282.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K148">
-        <v>465.6666666666661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -5900,38 +5844,30 @@
         </is>
       </c>
       <c r="B149">
-        <v>8955</v>
+        <v>8901</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Ord1_T4_R.wmv</t>
+          <t>Ord3_T4_L.wmv</t>
         </is>
       </c>
       <c r="E149">
         <v>4</v>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G149">
-        <v>6451</v>
-      </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149">
-        <v>1289.666666666668</v>
+        <v>365.666666666667</v>
       </c>
       <c r="K149">
-        <v>1407.333333333334</v>
+        <v>490.6666666666661</v>
       </c>
     </row>
     <row r="150">
@@ -5941,30 +5877,38 @@
         </is>
       </c>
       <c r="B150">
-        <v>8955</v>
+        <v>8901</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Ord1_T5_L.wmv</t>
+          <t>Ord3_T5_R.wmv</t>
         </is>
       </c>
       <c r="E150">
         <v>5</v>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G150">
+        <v>6026</v>
+      </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="K150">
-        <v>340.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -5974,14 +5918,14 @@
         </is>
       </c>
       <c r="B151">
-        <v>8955</v>
+        <v>8901</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Ord1_T6_R.wmv</t>
+          <t>Ord3_T6_L.wmv</t>
         </is>
       </c>
       <c r="E151">
@@ -5989,23 +5933,23 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G151">
-        <v>6159.333333333334</v>
+        <v>7434.333333333334</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151">
-        <v>1873</v>
+        <v>240.666666666667</v>
       </c>
       <c r="K151">
-        <v>1440.666666666667</v>
+        <v>1665.666666666666</v>
       </c>
     </row>
     <row r="152">
@@ -6015,14 +5959,14 @@
         </is>
       </c>
       <c r="B152">
-        <v>9029</v>
+        <v>8725</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Ord3_T1_L.wmv</t>
+          <t>Ord1_T1_R.wmv</t>
         </is>
       </c>
       <c r="E152">
@@ -6034,16 +5978,16 @@
         </is>
       </c>
       <c r="G152">
-        <v>7401</v>
+        <v>5159.333333333334</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152">
-        <v>1240.666666666668</v>
+        <v>3162.666666666667</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -6056,14 +6000,14 @@
         </is>
       </c>
       <c r="B153">
-        <v>9029</v>
+        <v>8725</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Ord3_T2_R.wmv</t>
+          <t>Ord1_T2_L.wmv</t>
         </is>
       </c>
       <c r="E153">
@@ -6075,19 +6019,19 @@
         </is>
       </c>
       <c r="G153">
-        <v>5876.000000000001</v>
+        <v>4926</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153">
-        <v>857.333333333333</v>
+        <v>1796.000000000001</v>
       </c>
     </row>
     <row r="154">
@@ -6097,14 +6041,14 @@
         </is>
       </c>
       <c r="B154">
-        <v>9029</v>
+        <v>8725</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Ord3_T3_R.wmv</t>
+          <t>Ord1_T3_L.wmv</t>
         </is>
       </c>
       <c r="E154">
@@ -6112,23 +6056,23 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G154">
-        <v>6009.333333333334</v>
+        <v>6026</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J154">
-        <v>1148</v>
+        <v>632.333333333333</v>
       </c>
       <c r="K154">
-        <v>507.333333333333</v>
+        <v>1780.333333333334</v>
       </c>
     </row>
     <row r="155">
@@ -6138,14 +6082,14 @@
         </is>
       </c>
       <c r="B155">
-        <v>9029</v>
+        <v>8725</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Ord3_T4_L.wmv</t>
+          <t>Ord1_T4_R.wmv</t>
         </is>
       </c>
       <c r="E155">
@@ -6153,23 +6097,23 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G155">
-        <v>8026.000000000001</v>
+        <v>5792.666666666667</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>1346.999999999999</v>
       </c>
       <c r="K155">
-        <v>423.0000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -6179,14 +6123,14 @@
         </is>
       </c>
       <c r="B156">
-        <v>9029</v>
+        <v>8725</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Ord3_T5_R.wmv</t>
+          <t>Ord1_T5_L.wmv</t>
         </is>
       </c>
       <c r="E156">
@@ -6198,7 +6142,7 @@
         </is>
       </c>
       <c r="G156">
-        <v>6092.666666666667</v>
+        <v>5184.333333333334</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -6207,10 +6151,10 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>1389.666666666667</v>
+        <v>1989.666666666666</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>849</v>
       </c>
     </row>
     <row r="157">
@@ -6220,14 +6164,14 @@
         </is>
       </c>
       <c r="B157">
-        <v>9029</v>
+        <v>8725</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Ord3_T6_L.wmv</t>
+          <t>Ord1_T6_R.wmv</t>
         </is>
       </c>
       <c r="E157">
@@ -6239,19 +6183,19 @@
         </is>
       </c>
       <c r="G157">
-        <v>6409.333333333334</v>
+        <v>8234.333333333334</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157">
-        <v>682.333333333333</v>
+        <v>2697.000000000001</v>
       </c>
       <c r="K157">
-        <v>199</v>
+        <v>2638.666666666666</v>
       </c>
     </row>
     <row r="158">
@@ -6261,14 +6205,14 @@
         </is>
       </c>
       <c r="B158">
-        <v>8545</v>
+        <v>8955</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Ord4_T1_R.wmv</t>
+          <t>Ord2_T1_L.wmv</t>
         </is>
       </c>
       <c r="E158">
@@ -6280,16 +6224,16 @@
         </is>
       </c>
       <c r="G158">
-        <v>9692.666666666668</v>
+        <v>6151</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
-        <v>349</v>
+        <v>765.666666666667</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -6302,35 +6246,27 @@
         </is>
       </c>
       <c r="B159">
-        <v>8545</v>
+        <v>8955</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Ord4_T2_L.wmv</t>
+          <t>Ord2_T2_R.wmv</t>
         </is>
       </c>
       <c r="E159">
         <v>2</v>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G159">
-        <v>9176</v>
-      </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -6343,14 +6279,14 @@
         </is>
       </c>
       <c r="B160">
-        <v>8545</v>
+        <v>8955</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Ord4_T3_L.wmv</t>
+          <t>Ord2_T3_R.wmv</t>
         </is>
       </c>
       <c r="E160">
@@ -6362,19 +6298,19 @@
         </is>
       </c>
       <c r="G160">
-        <v>6151.000000000001</v>
+        <v>6142.666666666667</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160">
-        <v>374</v>
+        <v>1282.333333333334</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>465.6666666666661</v>
       </c>
     </row>
     <row r="161">
@@ -6384,14 +6320,14 @@
         </is>
       </c>
       <c r="B161">
-        <v>8545</v>
+        <v>8955</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Ord4_T4_R.wmv</t>
+          <t>Ord2_T4_L.wmv</t>
         </is>
       </c>
       <c r="E161">
@@ -6403,7 +6339,7 @@
         </is>
       </c>
       <c r="G161">
-        <v>9076</v>
+        <v>6451</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -6412,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>657.3333333333339</v>
+        <v>1289.666666666668</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -6425,30 +6361,38 @@
         </is>
       </c>
       <c r="B162">
-        <v>8545</v>
+        <v>8955</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Ord4_T5_L.wmv</t>
+          <t>Ord2_T5_R.wmv</t>
         </is>
       </c>
       <c r="E162">
         <v>5</v>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G162">
+        <v>7242.666666666667</v>
+      </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>340.666666666667</v>
       </c>
     </row>
     <row r="163">
@@ -6458,14 +6402,14 @@
         </is>
       </c>
       <c r="B163">
-        <v>8545</v>
+        <v>8955</v>
       </c>
       <c r="C163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Ord4_T6_R.wmv</t>
+          <t>Ord2_T6_L.wmv</t>
         </is>
       </c>
       <c r="E163">
@@ -6473,23 +6417,23 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G163">
-        <v>9117.666666666668</v>
+        <v>6159.333333333334</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>1873</v>
       </c>
       <c r="K163">
-        <v>456.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -6499,14 +6443,14 @@
         </is>
       </c>
       <c r="B164">
-        <v>8745</v>
+        <v>9029</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Ord2_T1_L.wmv</t>
+          <t>Ord3_T1_L.wmv</t>
         </is>
       </c>
       <c r="E164">
@@ -6518,7 +6462,7 @@
         </is>
       </c>
       <c r="G164">
-        <v>5767.666666666667</v>
+        <v>7401</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -6527,10 +6471,10 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>1074</v>
+        <v>1240.666666666668</v>
       </c>
       <c r="K164">
-        <v>1832.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -6540,18 +6484,38 @@
         </is>
       </c>
       <c r="B165">
-        <v>8745</v>
+        <v>9029</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Ord2_T2_R.wmv</t>
+          <t>Ord3_T2_R.wmv</t>
         </is>
       </c>
       <c r="E165">
         <v>2</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G165">
+        <v>5876.000000000001</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -6561,18 +6525,38 @@
         </is>
       </c>
       <c r="B166">
-        <v>8745</v>
+        <v>9029</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Ord2_T3_R.wmv</t>
+          <t>Ord3_T3_R.wmv</t>
         </is>
       </c>
       <c r="E166">
         <v>3</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G166">
+        <v>6009.333333333334</v>
+      </c>
+      <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>1148</v>
+      </c>
+      <c r="K166">
+        <v>507.333333333333</v>
       </c>
     </row>
     <row r="167">
@@ -6582,19 +6566,39 @@
         </is>
       </c>
       <c r="B167">
-        <v>8745</v>
+        <v>9029</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Ord2_T4_L.wmv</t>
+          <t>Ord3_T4_L.wmv</t>
         </is>
       </c>
       <c r="E167">
         <v>4</v>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G167">
+        <v>8026.000000000001</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>423.0000000000009</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6603,27 +6607,35 @@
         </is>
       </c>
       <c r="B168">
-        <v>8745</v>
+        <v>9029</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Ord2_T5_R.wmv</t>
+          <t>Ord3_T5_R.wmv</t>
         </is>
       </c>
       <c r="E168">
         <v>5</v>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G168">
+        <v>6092.666666666667</v>
+      </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168">
-        <v>0</v>
+        <v>1389.666666666667</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -6636,30 +6648,38 @@
         </is>
       </c>
       <c r="B169">
-        <v>8745</v>
+        <v>9029</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Ord2_T6_L.wmv</t>
+          <t>Ord3_T6_L.wmv</t>
         </is>
       </c>
       <c r="E169">
         <v>6</v>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G169">
+        <v>6409.333333333334</v>
+      </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>682.333333333333</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170">
@@ -6669,14 +6689,14 @@
         </is>
       </c>
       <c r="B170">
-        <v>8909</v>
+        <v>8545</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Ord3_T1_L.wmv</t>
+          <t>Ord4_T1_R.wmv</t>
         </is>
       </c>
       <c r="E170">
@@ -6684,23 +6704,23 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G170">
-        <v>6951.000000000001</v>
+        <v>9692.666666666668</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>482.3333333333339</v>
+        <v>349</v>
       </c>
       <c r="K170">
-        <v>1907.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -6710,14 +6730,14 @@
         </is>
       </c>
       <c r="B171">
-        <v>8909</v>
+        <v>8545</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Ord3_T2_R.wmv</t>
+          <t>Ord4_T2_L.wmv</t>
         </is>
       </c>
       <c r="E171">
@@ -6729,7 +6749,7 @@
         </is>
       </c>
       <c r="G171">
-        <v>7301.000000000001</v>
+        <v>9176</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -6738,10 +6758,10 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>682.333333333333</v>
+        <v>474</v>
       </c>
       <c r="K171">
-        <v>432.3333333333339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -6751,27 +6771,35 @@
         </is>
       </c>
       <c r="B172">
-        <v>8909</v>
+        <v>8545</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Ord3_T3_R.wmv</t>
+          <t>Ord4_T3_L.wmv</t>
         </is>
       </c>
       <c r="E172">
         <v>3</v>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G172">
+        <v>6151.000000000001</v>
+      </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172">
-        <v>740.6666666666665</v>
+        <v>374</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -6784,14 +6812,14 @@
         </is>
       </c>
       <c r="B173">
-        <v>8909</v>
+        <v>8545</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Ord3_T4_L.wmv</t>
+          <t>Ord4_T4_R.wmv</t>
         </is>
       </c>
       <c r="E173">
@@ -6803,7 +6831,7 @@
         </is>
       </c>
       <c r="G173">
-        <v>5209.333333333334</v>
+        <v>9076</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -6812,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>4924</v>
+        <v>657.3333333333339</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -6825,14 +6853,14 @@
         </is>
       </c>
       <c r="B174">
-        <v>8909</v>
+        <v>8545</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Ord3_T5_R.wmv</t>
+          <t>Ord4_T5_L.wmv</t>
         </is>
       </c>
       <c r="E174">
@@ -6848,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>1557.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -6858,14 +6886,14 @@
         </is>
       </c>
       <c r="B175">
-        <v>8909</v>
+        <v>8545</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Ord3_T6_L.wmv</t>
+          <t>Ord4_T6_R.wmv</t>
         </is>
       </c>
       <c r="E175">
@@ -6873,23 +6901,23 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G175">
-        <v>5209.333333333333</v>
+        <v>9117.666666666668</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175">
-        <v>4929.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K175">
-        <v>1323.000000000001</v>
+        <v>456.333333333333</v>
       </c>
     </row>
     <row r="176">
@@ -6899,14 +6927,14 @@
         </is>
       </c>
       <c r="B176">
-        <v>8908</v>
+        <v>8745</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Ord3_T1_L.wmv</t>
+          <t>Ord2_T1_L.wmv</t>
         </is>
       </c>
       <c r="E176">
@@ -6914,23 +6942,23 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G176">
-        <v>4601</v>
+        <v>5767.666666666667</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176">
-        <v>449</v>
+        <v>1074</v>
       </c>
       <c r="K176">
-        <v>1214.666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -6940,30 +6968,18 @@
         </is>
       </c>
       <c r="B177">
-        <v>8908</v>
+        <v>8745</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Ord3_T2_R.wmv</t>
+          <t>Ord2_T2_R.wmv</t>
         </is>
       </c>
       <c r="E177">
         <v>2</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177">
-        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -6973,38 +6989,18 @@
         </is>
       </c>
       <c r="B178">
-        <v>8908</v>
+        <v>8745</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Ord3_T3_R.wmv</t>
+          <t>Ord2_T3_R.wmv</t>
         </is>
       </c>
       <c r="E178">
         <v>3</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G178">
-        <v>7476.000000000001</v>
-      </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178">
-        <v>1240.666666666667</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -7014,31 +7010,19 @@
         </is>
       </c>
       <c r="B179">
-        <v>8908</v>
+        <v>8745</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Ord3_T4_L.wmv</t>
+          <t>Ord2_T4_L.wmv</t>
         </is>
       </c>
       <c r="E179">
         <v>4</v>
       </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
-        <v>0</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7047,35 +7031,27 @@
         </is>
       </c>
       <c r="B180">
-        <v>8908</v>
+        <v>8745</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Ord3_T5_R.wmv</t>
+          <t>Ord2_T5_R.wmv</t>
         </is>
       </c>
       <c r="E180">
         <v>5</v>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G180">
-        <v>6317.666666666667</v>
-      </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -7088,14 +7064,14 @@
         </is>
       </c>
       <c r="B181">
-        <v>8908</v>
+        <v>8745</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Ord3_T6_L.wmv</t>
+          <t>Ord2_T6_L.wmv</t>
         </is>
       </c>
       <c r="E181">
@@ -7111,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="K181">
-        <v>374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -7121,14 +7097,14 @@
         </is>
       </c>
       <c r="B182">
-        <v>8855</v>
+        <v>8909</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Ord4_T1_R.wmv</t>
+          <t>Ord3_T1_L.wmv</t>
         </is>
       </c>
       <c r="E182">
@@ -7140,19 +7116,19 @@
         </is>
       </c>
       <c r="G182">
-        <v>7309.333333333334</v>
+        <v>5101</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182">
-        <v>656.333333333333</v>
+        <v>482.3333333333339</v>
       </c>
       <c r="K182">
-        <v>582.333333333333</v>
+        <v>1907.333333333333</v>
       </c>
     </row>
     <row r="183">
@@ -7162,30 +7138,38 @@
         </is>
       </c>
       <c r="B183">
-        <v>8855</v>
+        <v>8909</v>
       </c>
       <c r="C183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Ord4_T2_L.wmv</t>
+          <t>Ord3_T2_R.wmv</t>
         </is>
       </c>
       <c r="E183">
         <v>2</v>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G183">
+        <v>7301.000000000001</v>
+      </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183">
-        <v>0</v>
+        <v>682.333333333333</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>432.3333333333339</v>
       </c>
     </row>
     <row r="184">
@@ -7195,14 +7179,14 @@
         </is>
       </c>
       <c r="B184">
-        <v>8855</v>
+        <v>8909</v>
       </c>
       <c r="C184">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Ord4_T3_L.wmv</t>
+          <t>Ord3_T3_R.wmv</t>
         </is>
       </c>
       <c r="E184">
@@ -7215,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>740.6666666666665</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -7228,21 +7212,29 @@
         </is>
       </c>
       <c r="B185">
-        <v>8855</v>
+        <v>8909</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Ord4_T4_R.wmv</t>
+          <t>Ord3_T4_L.wmv</t>
         </is>
       </c>
       <c r="E185">
         <v>4</v>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G185">
+        <v>5209.333333333334</v>
+      </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -7261,38 +7253,30 @@
         </is>
       </c>
       <c r="B186">
-        <v>8855</v>
+        <v>8909</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Ord4_T5_L.wmv</t>
+          <t>Ord3_T5_R.wmv</t>
         </is>
       </c>
       <c r="E186">
         <v>5</v>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G186">
-        <v>8234.333333333334</v>
-      </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186">
         <v>0</v>
       </c>
       <c r="K186">
-        <v>690.6666666666661</v>
+        <v>1557.333333333334</v>
       </c>
     </row>
     <row r="187">
@@ -7302,14 +7286,14 @@
         </is>
       </c>
       <c r="B187">
-        <v>8855</v>
+        <v>8909</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Ord4_T6_R.wmv</t>
+          <t>Ord3_T6_L.wmv</t>
         </is>
       </c>
       <c r="E187">
@@ -7321,19 +7305,19 @@
         </is>
       </c>
       <c r="G187">
-        <v>5184.333333333334</v>
+        <v>5209.333333333333</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187">
-        <v>4879.333333333332</v>
+        <v>3022.000000000001</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>1323.000000000001</v>
       </c>
     </row>
     <row r="188">
@@ -7343,30 +7327,38 @@
         </is>
       </c>
       <c r="B188">
-        <v>8795</v>
+        <v>8908</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Ord2_T1_L.wmv</t>
+          <t>Ord3_T1_L.wmv</t>
         </is>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G188">
+        <v>4601</v>
+      </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188">
-        <v>257.333333333333</v>
+        <v>449</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>1214.666666666666</v>
       </c>
     </row>
     <row r="189">
@@ -7376,18 +7368,24 @@
         </is>
       </c>
       <c r="B189">
-        <v>8795</v>
+        <v>8908</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Ord2_T2_R.wmv</t>
+          <t>Ord3_T2_R.wmv</t>
         </is>
       </c>
       <c r="E189">
         <v>2</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -7403,18 +7401,38 @@
         </is>
       </c>
       <c r="B190">
-        <v>8795</v>
+        <v>8908</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Ord2_T3_R.wmv</t>
+          <t>Ord3_T3_R.wmv</t>
         </is>
       </c>
       <c r="E190">
         <v>3</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G190">
+        <v>7476.000000000001</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1240.666666666667</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -7424,35 +7442,27 @@
         </is>
       </c>
       <c r="B191">
-        <v>8795</v>
+        <v>8908</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Ord2_T4_L.wmv</t>
+          <t>Ord3_T4_L.wmv</t>
         </is>
       </c>
       <c r="E191">
         <v>4</v>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G191">
-        <v>7726.000000000001</v>
-      </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>1915.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -7465,14 +7475,14 @@
         </is>
       </c>
       <c r="B192">
-        <v>8795</v>
+        <v>8908</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Ord2_T5_R.wmv</t>
+          <t>Ord3_T5_R.wmv</t>
         </is>
       </c>
       <c r="E192">
@@ -7480,23 +7490,23 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G192">
-        <v>6726</v>
+        <v>6317.666666666667</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="K192">
-        <v>1107.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -7506,14 +7516,14 @@
         </is>
       </c>
       <c r="B193">
-        <v>8795</v>
+        <v>8908</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Ord2_T6_L.wmv</t>
+          <t>Ord3_T6_L.wmv</t>
         </is>
       </c>
       <c r="E193">
@@ -7525,19 +7535,19 @@
         </is>
       </c>
       <c r="G193">
-        <v>6001.000000000001</v>
+        <v>9776</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193">
-        <v>1381.333333333332</v>
+        <v>0</v>
       </c>
       <c r="K193">
-        <v>1132.333333333333</v>
+        <v>374</v>
       </c>
     </row>
     <row r="194">
@@ -7547,30 +7557,38 @@
         </is>
       </c>
       <c r="B194">
-        <v>8888</v>
+        <v>8938</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Ord1_T1_R.wmv</t>
+          <t>Ord4_T1_R.wmv</t>
         </is>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G194">
+        <v>6867.666666666667</v>
+      </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194">
-        <v>599</v>
+        <v>2249.000000000001</v>
       </c>
     </row>
     <row r="195">
@@ -7580,14 +7598,14 @@
         </is>
       </c>
       <c r="B195">
-        <v>8888</v>
+        <v>8938</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Ord1_T2_L.wmv</t>
+          <t>Ord4_T2_L.wmv</t>
         </is>
       </c>
       <c r="E195">
@@ -7599,19 +7617,19 @@
         </is>
       </c>
       <c r="G195">
-        <v>5117.666666666667</v>
+        <v>6542.666666666667</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195">
-        <v>1631.333333333333</v>
+        <v>715.666666666667</v>
       </c>
       <c r="K195">
-        <v>1364.666666666666</v>
+        <v>990.6666666666661</v>
       </c>
     </row>
     <row r="196">
@@ -7621,14 +7639,14 @@
         </is>
       </c>
       <c r="B196">
-        <v>8888</v>
+        <v>8938</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Ord1_T3_L.wmv</t>
+          <t>Ord4_T3_L.wmv</t>
         </is>
       </c>
       <c r="E196">
@@ -7636,23 +7654,23 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G196">
-        <v>5959.333333333334</v>
+        <v>6976.000000000001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196">
-        <v>973.9999999999991</v>
+        <v>465.6666666666661</v>
       </c>
       <c r="K196">
-        <v>1648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -7662,38 +7680,30 @@
         </is>
       </c>
       <c r="B197">
-        <v>8888</v>
+        <v>8938</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Ord1_T4_R.wmv</t>
+          <t>Ord4_T4_R.wmv</t>
         </is>
       </c>
       <c r="E197">
         <v>4</v>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G197">
-        <v>5217.666666666667</v>
-      </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197">
-        <v>574</v>
+        <v>0</v>
       </c>
       <c r="K197">
-        <v>499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -7703,14 +7713,14 @@
         </is>
       </c>
       <c r="B198">
-        <v>8888</v>
+        <v>8938</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Ord1_T5_L.wmv</t>
+          <t>Ord4_T5_L.wmv</t>
         </is>
       </c>
       <c r="E198">
@@ -7723,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -7736,14 +7746,14 @@
         </is>
       </c>
       <c r="B199">
-        <v>8888</v>
+        <v>8938</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Ord1_T6_R.wmv</t>
+          <t>Ord4_T6_R.wmv</t>
         </is>
       </c>
       <c r="E199">
@@ -7751,23 +7761,23 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G199">
-        <v>7142.666666666667</v>
+        <v>7876.000000000001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199">
-        <v>0</v>
+        <v>565.666666666667</v>
       </c>
       <c r="K199">
-        <v>1240.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -7777,7 +7787,7 @@
         </is>
       </c>
       <c r="B200">
-        <v>8998</v>
+        <v>8855</v>
       </c>
       <c r="C200">
         <v>2</v>
@@ -7796,19 +7806,19 @@
         </is>
       </c>
       <c r="G200">
-        <v>7376.000000000001</v>
+        <v>7309.333333333334</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200">
         <v>0</v>
       </c>
       <c r="J200">
-        <v>590.6666666666661</v>
+        <v>656.333333333333</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>582.333333333333</v>
       </c>
     </row>
     <row r="201">
@@ -7818,7 +7828,7 @@
         </is>
       </c>
       <c r="B201">
-        <v>8998</v>
+        <v>8855</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -7851,7 +7861,7 @@
         </is>
       </c>
       <c r="B202">
-        <v>8998</v>
+        <v>8855</v>
       </c>
       <c r="C202">
         <v>2</v>
@@ -7884,7 +7894,7 @@
         </is>
       </c>
       <c r="B203">
-        <v>8998</v>
+        <v>8855</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -7897,6 +7907,12 @@
       <c r="E203">
         <v>4</v>
       </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
       <c r="J203">
         <v>0</v>
       </c>
@@ -7911,7 +7927,7 @@
         </is>
       </c>
       <c r="B204">
-        <v>8998</v>
+        <v>8855</v>
       </c>
       <c r="C204">
         <v>2</v>
@@ -7924,17 +7940,25 @@
       <c r="E204">
         <v>5</v>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G204">
+        <v>8234.333333333334</v>
+      </c>
       <c r="H204">
         <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204">
         <v>0</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>690.6666666666661</v>
       </c>
     </row>
     <row r="205">
@@ -7944,7 +7968,7 @@
         </is>
       </c>
       <c r="B205">
-        <v>8998</v>
+        <v>8855</v>
       </c>
       <c r="C205">
         <v>2</v>
@@ -7963,16 +7987,16 @@
         </is>
       </c>
       <c r="G205">
-        <v>7409.333333333334</v>
+        <v>5184.333333333334</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205">
-        <v>974</v>
+        <v>2980.333333333332</v>
       </c>
       <c r="K205">
         <v>0</v>
@@ -7985,7 +8009,7 @@
         </is>
       </c>
       <c r="B206">
-        <v>9043</v>
+        <v>8795</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -7998,25 +8022,17 @@
       <c r="E206">
         <v>1</v>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G206">
-        <v>4601</v>
-      </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206">
-        <v>940.666666666667</v>
+        <v>257.333333333333</v>
       </c>
       <c r="K206">
-        <v>1564.666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -8026,7 +8042,7 @@
         </is>
       </c>
       <c r="B207">
-        <v>9043</v>
+        <v>8795</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -8039,25 +8055,11 @@
       <c r="E207">
         <v>2</v>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G207">
-        <v>5692.666666666667</v>
-      </c>
-      <c r="H207">
-        <v>2</v>
-      </c>
-      <c r="I207">
-        <v>1</v>
-      </c>
       <c r="J207">
-        <v>1738.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K207">
-        <v>757.3333333333339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -8067,7 +8069,7 @@
         </is>
       </c>
       <c r="B208">
-        <v>9043</v>
+        <v>8795</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -8079,26 +8081,6 @@
       </c>
       <c r="E208">
         <v>3</v>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G208">
-        <v>7117.666666666667</v>
-      </c>
-      <c r="H208">
-        <v>2</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
-      <c r="J208">
-        <v>1648</v>
-      </c>
-      <c r="K208">
-        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -8108,7 +8090,7 @@
         </is>
       </c>
       <c r="B209">
-        <v>9043</v>
+        <v>8795</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -8123,23 +8105,23 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G209">
-        <v>5601</v>
+        <v>7726.000000000001</v>
       </c>
       <c r="H209">
         <v>1</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209">
-        <v>839.666666666667</v>
+        <v>1915.666666666667</v>
       </c>
       <c r="K209">
-        <v>1781.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -8149,7 +8131,7 @@
         </is>
       </c>
       <c r="B210">
-        <v>9043</v>
+        <v>8795</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -8164,23 +8146,23 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G210">
-        <v>5451</v>
+        <v>6726</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210">
-        <v>2886.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K210">
-        <v>1165.666666666667</v>
+        <v>1107.333333333334</v>
       </c>
     </row>
     <row r="211">
@@ -8190,7 +8172,7 @@
         </is>
       </c>
       <c r="B211">
-        <v>9043</v>
+        <v>8795</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -8205,23 +8187,23 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G211">
-        <v>6042.666666666667</v>
+        <v>6001.000000000001</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211">
-        <v>2639.666666666666</v>
+        <v>1381.333333333332</v>
       </c>
       <c r="K211">
-        <v>1340.666666666666</v>
+        <v>1132.333333333333</v>
       </c>
     </row>
     <row r="212">
@@ -8231,14 +8213,14 @@
         </is>
       </c>
       <c r="B212">
-        <v>8736</v>
+        <v>8888</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Ord4_T1_R.wmv</t>
+          <t>Ord3_T1_L.wmv</t>
         </is>
       </c>
       <c r="E212">
@@ -8251,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>565.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K212">
-        <v>0</v>
+        <v>599</v>
       </c>
     </row>
     <row r="213">
@@ -8264,14 +8246,14 @@
         </is>
       </c>
       <c r="B213">
-        <v>8736</v>
+        <v>8888</v>
       </c>
       <c r="C213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Ord4_T2_L.wmv</t>
+          <t>Ord3_T2_R.wmv</t>
         </is>
       </c>
       <c r="E213">
@@ -8283,7 +8265,7 @@
         </is>
       </c>
       <c r="G213">
-        <v>5342.666666666667</v>
+        <v>5117.666666666667</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -8292,10 +8274,10 @@
         <v>0</v>
       </c>
       <c r="J213">
-        <v>1799</v>
+        <v>1631.333333333333</v>
       </c>
       <c r="K213">
-        <v>1065.666666666666</v>
+        <v>1364.666666666666</v>
       </c>
     </row>
     <row r="214">
@@ -8305,14 +8287,14 @@
         </is>
       </c>
       <c r="B214">
-        <v>8736</v>
+        <v>8888</v>
       </c>
       <c r="C214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Ord4_T3_L.wmv</t>
+          <t>Ord3_T3_R.wmv</t>
         </is>
       </c>
       <c r="E214">
@@ -8320,23 +8302,23 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G214">
-        <v>6276.000000000001</v>
+        <v>5959.333333333334</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J214">
-        <v>3748.999999999999</v>
+        <v>973.9999999999991</v>
       </c>
       <c r="K214">
-        <v>0</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="215">
@@ -8346,30 +8328,38 @@
         </is>
       </c>
       <c r="B215">
-        <v>8736</v>
+        <v>8888</v>
       </c>
       <c r="C215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Ord4_T4_R.wmv</t>
+          <t>Ord3_T4_L.wmv</t>
         </is>
       </c>
       <c r="E215">
         <v>4</v>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G215">
+        <v>5217.666666666667</v>
+      </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="K215">
-        <v>0</v>
+        <v>499</v>
       </c>
     </row>
     <row r="216">
@@ -8379,35 +8369,27 @@
         </is>
       </c>
       <c r="B216">
-        <v>8736</v>
+        <v>8888</v>
       </c>
       <c r="C216">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Ord4_T5_L.wmv</t>
+          <t>Ord3_T5_R.wmv</t>
         </is>
       </c>
       <c r="E216">
         <v>5</v>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G216">
-        <v>6084.333333333334</v>
-      </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>0</v>
       </c>
       <c r="J216">
-        <v>1015.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -8420,35 +8402,27 @@
         </is>
       </c>
       <c r="B217">
-        <v>8736</v>
+        <v>8888</v>
       </c>
       <c r="C217">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Ord4_T6_R.wmv</t>
+          <t>Ord3_T6_L.wmv</t>
         </is>
       </c>
       <c r="E217">
         <v>6</v>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G217">
-        <v>5759.333333333334</v>
-      </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217">
         <v>0</v>
       </c>
       <c r="J217">
-        <v>3273</v>
+        <v>0</v>
       </c>
       <c r="K217">
         <v>0</v>
@@ -8461,7 +8435,7 @@
         </is>
       </c>
       <c r="B218">
-        <v>8751</v>
+        <v>8998</v>
       </c>
       <c r="C218">
         <v>2</v>
@@ -8480,19 +8454,19 @@
         </is>
       </c>
       <c r="G218">
-        <v>5642.666666666667</v>
+        <v>7376.000000000001</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218">
-        <v>2607.333333333333</v>
+        <v>590.6666666666661</v>
       </c>
       <c r="K218">
-        <v>932.3333333333321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -8502,7 +8476,7 @@
         </is>
       </c>
       <c r="B219">
-        <v>8751</v>
+        <v>8998</v>
       </c>
       <c r="C219">
         <v>2</v>
@@ -8515,25 +8489,17 @@
       <c r="E219">
         <v>2</v>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G219">
-        <v>7084.333333333334</v>
-      </c>
       <c r="H219">
         <v>0</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="K219">
-        <v>1989.666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -8543,7 +8509,7 @@
         </is>
       </c>
       <c r="B220">
-        <v>8751</v>
+        <v>8998</v>
       </c>
       <c r="C220">
         <v>2</v>
@@ -8556,25 +8522,17 @@
       <c r="E220">
         <v>3</v>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G220">
-        <v>5976.000000000001</v>
-      </c>
       <c r="H220">
         <v>0</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220">
-        <v>3682.333333333333</v>
+        <v>0</v>
       </c>
       <c r="K220">
-        <v>1514.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -8584,7 +8542,7 @@
         </is>
       </c>
       <c r="B221">
-        <v>8751</v>
+        <v>8998</v>
       </c>
       <c r="C221">
         <v>2</v>
@@ -8597,17 +8555,11 @@
       <c r="E221">
         <v>4</v>
       </c>
-      <c r="H221">
-        <v>0</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
       <c r="J221">
-        <v>1115.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K221">
-        <v>5156.333333333335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -8617,7 +8569,7 @@
         </is>
       </c>
       <c r="B222">
-        <v>8751</v>
+        <v>8998</v>
       </c>
       <c r="C222">
         <v>2</v>
@@ -8630,25 +8582,17 @@
       <c r="E222">
         <v>5</v>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G222">
-        <v>6251</v>
-      </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222">
         <v>0</v>
       </c>
       <c r="J222">
-        <v>2497.000000000001</v>
+        <v>0</v>
       </c>
       <c r="K222">
-        <v>982.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -8658,7 +8602,7 @@
         </is>
       </c>
       <c r="B223">
-        <v>8751</v>
+        <v>8998</v>
       </c>
       <c r="C223">
         <v>2</v>
@@ -8673,23 +8617,23 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G223">
-        <v>8251</v>
+        <v>7409.333333333334</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223">
-        <v>2657.333333333334</v>
+        <v>974</v>
       </c>
       <c r="K223">
-        <v>2323.000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -8699,7 +8643,7 @@
         </is>
       </c>
       <c r="B224">
-        <v>8738</v>
+        <v>9043</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -8718,19 +8662,19 @@
         </is>
       </c>
       <c r="G224">
-        <v>6067.666666666667</v>
+        <v>4601</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224">
-        <v>1822.999999999999</v>
+        <v>940.666666666667</v>
       </c>
       <c r="K224">
-        <v>0</v>
+        <v>1564.666666666666</v>
       </c>
     </row>
     <row r="225">
@@ -8740,7 +8684,7 @@
         </is>
       </c>
       <c r="B225">
-        <v>8738</v>
+        <v>9043</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -8759,19 +8703,19 @@
         </is>
       </c>
       <c r="G225">
-        <v>7084.333333333334</v>
+        <v>5692.666666666667</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225">
-        <v>624</v>
+        <v>1738.666666666667</v>
       </c>
       <c r="K225">
-        <v>0</v>
+        <v>757.3333333333339</v>
       </c>
     </row>
     <row r="226">
@@ -8781,7 +8725,7 @@
         </is>
       </c>
       <c r="B226">
-        <v>8738</v>
+        <v>9043</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -8796,23 +8740,23 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G226">
-        <v>7351.000000000001</v>
+        <v>7117.666666666667</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226">
-        <v>349</v>
+        <v>1648</v>
       </c>
       <c r="K226">
-        <v>1198.999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -8822,7 +8766,7 @@
         </is>
       </c>
       <c r="B227">
-        <v>8738</v>
+        <v>9043</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -8841,19 +8785,19 @@
         </is>
       </c>
       <c r="G227">
-        <v>7259.333333333334</v>
+        <v>5601</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227">
         <v>1</v>
       </c>
       <c r="J227">
-        <v>0</v>
+        <v>839.666666666667</v>
       </c>
       <c r="K227">
-        <v>824</v>
+        <v>1781.333333333333</v>
       </c>
     </row>
     <row r="228">
@@ -8863,7 +8807,7 @@
         </is>
       </c>
       <c r="B228">
-        <v>8738</v>
+        <v>9043</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -8882,19 +8826,19 @@
         </is>
       </c>
       <c r="G228">
-        <v>6542.666666666667</v>
+        <v>5451</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228">
-        <v>665.666666666667</v>
+        <v>2886.666666666667</v>
       </c>
       <c r="K228">
-        <v>574</v>
+        <v>1165.666666666667</v>
       </c>
     </row>
     <row r="229">
@@ -8904,7 +8848,7 @@
         </is>
       </c>
       <c r="B229">
-        <v>8738</v>
+        <v>9043</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -8923,19 +8867,19 @@
         </is>
       </c>
       <c r="G229">
-        <v>7084.333333333334</v>
+        <v>6042.666666666667</v>
       </c>
       <c r="H229">
         <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229">
-        <v>2364.666666666666</v>
+        <v>2639.666666666666</v>
       </c>
       <c r="K229">
-        <v>465.6666666666679</v>
+        <v>1340.666666666666</v>
       </c>
     </row>
     <row r="230">
@@ -8945,27 +8889,35 @@
         </is>
       </c>
       <c r="B230">
-        <v>8910</v>
+        <v>8736</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Ord1_T1_R.wmv</t>
+          <t>Ord4_T1_R.wmv</t>
         </is>
       </c>
       <c r="E230">
         <v>1</v>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G230">
+        <v>6142.666666666667</v>
+      </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230">
         <v>0</v>
       </c>
       <c r="J230">
-        <v>0</v>
+        <v>565.666666666667</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -8978,14 +8930,14 @@
         </is>
       </c>
       <c r="B231">
-        <v>8910</v>
+        <v>8736</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Ord1_T2_L.wmv</t>
+          <t>Ord4_T2_L.wmv</t>
         </is>
       </c>
       <c r="E231">
@@ -8997,7 +8949,7 @@
         </is>
       </c>
       <c r="G231">
-        <v>7192.666666666667</v>
+        <v>5342.666666666667</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -9006,10 +8958,10 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <v>465.666666666667</v>
+        <v>1799</v>
       </c>
       <c r="K231">
-        <v>0</v>
+        <v>1065.666666666666</v>
       </c>
     </row>
     <row r="232">
@@ -9019,27 +8971,35 @@
         </is>
       </c>
       <c r="B232">
-        <v>8910</v>
+        <v>8736</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Ord1_T3_L.wmv</t>
+          <t>Ord4_T3_L.wmv</t>
         </is>
       </c>
       <c r="E232">
         <v>3</v>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G232">
+        <v>6276.000000000001</v>
+      </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
         <v>0</v>
       </c>
       <c r="J232">
-        <v>2915.666666666666</v>
+        <v>0</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -9052,14 +9012,14 @@
         </is>
       </c>
       <c r="B233">
-        <v>8910</v>
+        <v>8736</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Ord1_T4_R.wmv</t>
+          <t>Ord4_T4_R.wmv</t>
         </is>
       </c>
       <c r="E233">
@@ -9085,14 +9045,14 @@
         </is>
       </c>
       <c r="B234">
-        <v>8910</v>
+        <v>8736</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Ord1_T5_L.wmv</t>
+          <t>Ord4_T5_L.wmv</t>
         </is>
       </c>
       <c r="E234">
@@ -9104,16 +9064,16 @@
         </is>
       </c>
       <c r="G234">
-        <v>5401.000000000001</v>
+        <v>6084.333333333334</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234">
         <v>0</v>
       </c>
       <c r="J234">
-        <v>3772.999999999999</v>
+        <v>1015.666666666667</v>
       </c>
       <c r="K234">
         <v>0</v>
@@ -9126,14 +9086,14 @@
         </is>
       </c>
       <c r="B235">
-        <v>8910</v>
+        <v>8736</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Ord1_T6_R.wmv</t>
+          <t>Ord4_T6_R.wmv</t>
         </is>
       </c>
       <c r="E235">
@@ -9141,23 +9101,23 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G235">
-        <v>9742.666666666668</v>
+        <v>5759.333333333334</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235">
-        <v>0</v>
+        <v>815.6666666666661</v>
       </c>
       <c r="K235">
-        <v>382.3333333333321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -9167,14 +9127,14 @@
         </is>
       </c>
       <c r="B236">
-        <v>8769</v>
+        <v>8751</v>
       </c>
       <c r="C236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Ord3_T1_L.wmv</t>
+          <t>Ord2_T1_L.wmv</t>
         </is>
       </c>
       <c r="E236">
@@ -9186,19 +9146,19 @@
         </is>
       </c>
       <c r="G236">
-        <v>7601</v>
+        <v>5642.666666666667</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236">
-        <v>2565.666666666668</v>
+        <v>2607.333333333333</v>
       </c>
       <c r="K236">
-        <v>0</v>
+        <v>932.3333333333321</v>
       </c>
     </row>
     <row r="237">
@@ -9208,14 +9168,14 @@
         </is>
       </c>
       <c r="B237">
-        <v>8769</v>
+        <v>8751</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Ord3_T2_R.wmv</t>
+          <t>Ord2_T2_R.wmv</t>
         </is>
       </c>
       <c r="E237">
@@ -9227,19 +9187,19 @@
         </is>
       </c>
       <c r="G237">
-        <v>6284.333333333334</v>
+        <v>7084.333333333334</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
         <v>1</v>
       </c>
       <c r="J237">
-        <v>2265.666666666667</v>
+        <v>874</v>
       </c>
       <c r="K237">
-        <v>590.666666666667</v>
+        <v>1989.666666666666</v>
       </c>
     </row>
     <row r="238">
@@ -9249,14 +9209,14 @@
         </is>
       </c>
       <c r="B238">
-        <v>8769</v>
+        <v>8751</v>
       </c>
       <c r="C238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Ord3_T3_R.wmv</t>
+          <t>Ord2_T3_R.wmv</t>
         </is>
       </c>
       <c r="E238">
@@ -9264,23 +9224,23 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G238">
-        <v>4076.000000000001</v>
+        <v>5976.000000000001</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J238">
-        <v>1598.000000000001</v>
+        <v>0</v>
       </c>
       <c r="K238">
-        <v>2581.333333333333</v>
+        <v>1514.666666666667</v>
       </c>
     </row>
     <row r="239">
@@ -9290,14 +9250,14 @@
         </is>
       </c>
       <c r="B239">
-        <v>8769</v>
+        <v>8751</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Ord3_T4_L.wmv</t>
+          <t>Ord2_T4_L.wmv</t>
         </is>
       </c>
       <c r="E239">
@@ -9310,10 +9270,10 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <v>0</v>
+        <v>1115.666666666667</v>
       </c>
       <c r="K239">
-        <v>0</v>
+        <v>1482.333333333334</v>
       </c>
     </row>
     <row r="240">
@@ -9323,14 +9283,14 @@
         </is>
       </c>
       <c r="B240">
-        <v>8769</v>
+        <v>8751</v>
       </c>
       <c r="C240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Ord3_T5_R.wmv</t>
+          <t>Ord2_T5_R.wmv</t>
         </is>
       </c>
       <c r="E240">
@@ -9342,7 +9302,7 @@
         </is>
       </c>
       <c r="G240">
-        <v>9751</v>
+        <v>6251</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -9351,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>382.3333333333339</v>
+        <v>2497.000000000001</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -9364,30 +9324,38 @@
         </is>
       </c>
       <c r="B241">
-        <v>8769</v>
+        <v>8751</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Ord3_T6_L.wmv</t>
+          <t>Ord2_T6_L.wmv</t>
         </is>
       </c>
       <c r="E241">
         <v>6</v>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G241">
+        <v>8251</v>
+      </c>
       <c r="H241">
         <v>0</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241">
-        <v>865.6666666666665</v>
+        <v>2657.333333333334</v>
       </c>
       <c r="K241">
-        <v>0</v>
+        <v>2323.000000000001</v>
       </c>
     </row>
     <row r="242">
@@ -9397,14 +9365,14 @@
         </is>
       </c>
       <c r="B242">
-        <v>8971</v>
+        <v>8738</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Ord4_T1_R.wmv</t>
+          <t>Ord1_T1_R.wmv</t>
         </is>
       </c>
       <c r="E242">
@@ -9416,19 +9384,19 @@
         </is>
       </c>
       <c r="G242">
-        <v>4326</v>
+        <v>6067.666666666667</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242">
-        <v>2738.666666666668</v>
+        <v>1822.999999999999</v>
       </c>
       <c r="K242">
-        <v>724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -9438,14 +9406,14 @@
         </is>
       </c>
       <c r="B243">
-        <v>8971</v>
+        <v>8738</v>
       </c>
       <c r="C243">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Ord4_T2_L.wmv</t>
+          <t>Ord1_T2_L.wmv</t>
         </is>
       </c>
       <c r="E243">
@@ -9457,16 +9425,16 @@
         </is>
       </c>
       <c r="G243">
-        <v>4501</v>
+        <v>7084.333333333334</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <v>0</v>
       </c>
       <c r="J243">
-        <v>1889.666666666667</v>
+        <v>624</v>
       </c>
       <c r="K243">
         <v>0</v>
@@ -9479,14 +9447,14 @@
         </is>
       </c>
       <c r="B244">
-        <v>8971</v>
+        <v>8738</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Ord4_T3_L.wmv</t>
+          <t>Ord1_T3_L.wmv</t>
         </is>
       </c>
       <c r="E244">
@@ -9494,20 +9462,20 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G244">
-        <v>5817.666666666667</v>
+        <v>7351.000000000001</v>
       </c>
       <c r="H244">
         <v>1</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244">
-        <v>1864.666666666667</v>
+        <v>349</v>
       </c>
       <c r="K244">
         <v>0</v>
@@ -9520,14 +9488,14 @@
         </is>
       </c>
       <c r="B245">
-        <v>8971</v>
+        <v>8738</v>
       </c>
       <c r="C245">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Ord4_T4_R.wmv</t>
+          <t>Ord1_T4_R.wmv</t>
         </is>
       </c>
       <c r="E245">
@@ -9535,23 +9503,23 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G245">
-        <v>5767.666666666667</v>
+        <v>7259.333333333334</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245">
-        <v>1239.666666666666</v>
+        <v>0</v>
       </c>
       <c r="K245">
-        <v>782.333333333333</v>
+        <v>824</v>
       </c>
     </row>
     <row r="246">
@@ -9561,14 +9529,14 @@
         </is>
       </c>
       <c r="B246">
-        <v>8971</v>
+        <v>8738</v>
       </c>
       <c r="C246">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Ord4_T5_L.wmv</t>
+          <t>Ord1_T5_L.wmv</t>
         </is>
       </c>
       <c r="E246">
@@ -9580,19 +9548,19 @@
         </is>
       </c>
       <c r="G246">
-        <v>6767.666666666667</v>
+        <v>6542.666666666667</v>
       </c>
       <c r="H246">
         <v>1</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246">
-        <v>1306.333333333334</v>
+        <v>665.666666666667</v>
       </c>
       <c r="K246">
-        <v>0</v>
+        <v>574</v>
       </c>
     </row>
     <row r="247">
@@ -9602,14 +9570,14 @@
         </is>
       </c>
       <c r="B247">
-        <v>8971</v>
+        <v>8738</v>
       </c>
       <c r="C247">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Ord4_T6_R.wmv</t>
+          <t>Ord1_T6_R.wmv</t>
         </is>
       </c>
       <c r="E247">
@@ -9617,23 +9585,23 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G247">
-        <v>5684.333333333334</v>
+        <v>6126.000000000001</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247">
         <v>1</v>
       </c>
       <c r="J247">
-        <v>748.9999999999991</v>
+        <v>2364.666666666666</v>
       </c>
       <c r="K247">
-        <v>3838.666666666667</v>
+        <v>465.6666666666679</v>
       </c>
     </row>
     <row r="248">
@@ -9643,38 +9611,30 @@
         </is>
       </c>
       <c r="B248">
-        <v>8890</v>
+        <v>8910</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Ord2_T1_L.wmv</t>
+          <t>Ord1_T1_R.wmv</t>
         </is>
       </c>
       <c r="E248">
         <v>1</v>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G248">
-        <v>7709.333333333334</v>
-      </c>
       <c r="H248">
         <v>0</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248">
         <v>0</v>
       </c>
       <c r="K248">
-        <v>390.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -9684,14 +9644,14 @@
         </is>
       </c>
       <c r="B249">
-        <v>8890</v>
+        <v>8910</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Ord2_T2_R.wmv</t>
+          <t>Ord1_T2_L.wmv</t>
         </is>
       </c>
       <c r="E249">
@@ -9699,23 +9659,23 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G249">
-        <v>6051.000000000001</v>
+        <v>7192.666666666667</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249">
-        <v>0</v>
+        <v>465.666666666667</v>
       </c>
       <c r="K249">
-        <v>165.6666666666661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -9725,14 +9685,14 @@
         </is>
       </c>
       <c r="B250">
-        <v>8890</v>
+        <v>8910</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Ord2_T3_R.wmv</t>
+          <t>Ord1_T3_L.wmv</t>
         </is>
       </c>
       <c r="E250">
@@ -9745,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <v>0</v>
+        <v>2915.666666666666</v>
       </c>
       <c r="K250">
         <v>0</v>
@@ -9758,14 +9718,14 @@
         </is>
       </c>
       <c r="B251">
-        <v>8890</v>
+        <v>8910</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Ord2_T4_L.wmv</t>
+          <t>Ord1_T4_R.wmv</t>
         </is>
       </c>
       <c r="E251">
@@ -9791,14 +9751,14 @@
         </is>
       </c>
       <c r="B252">
-        <v>8890</v>
+        <v>8910</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Ord2_T5_R.wmv</t>
+          <t>Ord1_T5_L.wmv</t>
         </is>
       </c>
       <c r="E252">
@@ -9810,16 +9770,16 @@
         </is>
       </c>
       <c r="G252">
-        <v>5334.333333333334</v>
+        <v>5401.000000000001</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252">
         <v>0</v>
       </c>
       <c r="J252">
-        <v>757.333333333333</v>
+        <v>1265.666666666666</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -9832,14 +9792,14 @@
         </is>
       </c>
       <c r="B253">
-        <v>8890</v>
+        <v>8910</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Ord2_T6_L.wmv</t>
+          <t>Ord1_T6_R.wmv</t>
         </is>
       </c>
       <c r="E253">
@@ -9847,23 +9807,23 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G253">
-        <v>9017.666666666668</v>
+        <v>9742.666666666668</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253">
-        <v>265.6666666666661</v>
+        <v>0</v>
       </c>
       <c r="K253">
-        <v>0</v>
+        <v>382.3333333333321</v>
       </c>
     </row>
     <row r="254">
@@ -9873,14 +9833,14 @@
         </is>
       </c>
       <c r="B254">
-        <v>9022</v>
+        <v>8769</v>
       </c>
       <c r="C254">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Ord4_T1_R.wmv</t>
+          <t>Ord3_T1_L.wmv</t>
         </is>
       </c>
       <c r="E254">
@@ -9892,16 +9852,16 @@
         </is>
       </c>
       <c r="G254">
-        <v>4959.333333333334</v>
+        <v>7601</v>
       </c>
       <c r="H254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I254">
         <v>0</v>
       </c>
       <c r="J254">
-        <v>2337.666666666666</v>
+        <v>2565.666666666668</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -9914,14 +9874,14 @@
         </is>
       </c>
       <c r="B255">
-        <v>9022</v>
+        <v>8769</v>
       </c>
       <c r="C255">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Ord4_T2_L.wmv</t>
+          <t>Ord3_T2_R.wmv</t>
         </is>
       </c>
       <c r="E255">
@@ -9929,11 +9889,11 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G255">
-        <v>4742.666666666667</v>
+        <v>6284.333333333334</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -9942,10 +9902,10 @@
         <v>1</v>
       </c>
       <c r="J255">
-        <v>724</v>
+        <v>2265.666666666667</v>
       </c>
       <c r="K255">
-        <v>1855.333333333334</v>
+        <v>590.666666666667</v>
       </c>
     </row>
     <row r="256">
@@ -9955,14 +9915,14 @@
         </is>
       </c>
       <c r="B256">
-        <v>9022</v>
+        <v>8769</v>
       </c>
       <c r="C256">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Ord4_T3_L.wmv</t>
+          <t>Ord3_T3_R.wmv</t>
         </is>
       </c>
       <c r="E256">
@@ -9974,19 +9934,19 @@
         </is>
       </c>
       <c r="G256">
-        <v>8709.333333333334</v>
+        <v>4076.000000000001</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J256">
-        <v>924</v>
+        <v>1598.000000000001</v>
       </c>
       <c r="K256">
-        <v>1157.333333333334</v>
+        <v>457.3333333333339</v>
       </c>
     </row>
     <row r="257">
@@ -9996,35 +9956,27 @@
         </is>
       </c>
       <c r="B257">
-        <v>9022</v>
+        <v>8769</v>
       </c>
       <c r="C257">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Ord4_T4_R.wmv</t>
+          <t>Ord3_T4_L.wmv</t>
         </is>
       </c>
       <c r="E257">
         <v>4</v>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G257">
-        <v>8751</v>
-      </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>0</v>
       </c>
       <c r="J257">
-        <v>315.6666666666679</v>
+        <v>0</v>
       </c>
       <c r="K257">
         <v>0</v>
@@ -10037,14 +9989,14 @@
         </is>
       </c>
       <c r="B258">
-        <v>9022</v>
+        <v>8769</v>
       </c>
       <c r="C258">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Ord4_T5_L.wmv</t>
+          <t>Ord3_T5_R.wmv</t>
         </is>
       </c>
       <c r="E258">
@@ -10052,23 +10004,23 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G258">
-        <v>5792.666666666667</v>
+        <v>9751</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J258">
-        <v>657.3333333333339</v>
+        <v>382.3333333333339</v>
       </c>
       <c r="K258">
-        <v>1273.000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -10078,35 +10030,27 @@
         </is>
       </c>
       <c r="B259">
-        <v>9022</v>
+        <v>8769</v>
       </c>
       <c r="C259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Ord4_T6_R.wmv</t>
+          <t>Ord3_T6_L.wmv</t>
         </is>
       </c>
       <c r="E259">
         <v>6</v>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G259">
-        <v>6109.333333333334</v>
-      </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259">
         <v>0</v>
       </c>
       <c r="J259">
-        <v>3740.666666666666</v>
+        <v>865.6666666666665</v>
       </c>
       <c r="K259">
         <v>0</v>
@@ -10119,7 +10063,7 @@
         </is>
       </c>
       <c r="B260">
-        <v>9035</v>
+        <v>8971</v>
       </c>
       <c r="C260">
         <v>4</v>
@@ -10138,19 +10082,19 @@
         </is>
       </c>
       <c r="G260">
-        <v>6776.000000000001</v>
+        <v>4326</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260">
-        <v>340.6666666666661</v>
+        <v>2738.666666666668</v>
       </c>
       <c r="K260">
-        <v>0</v>
+        <v>724</v>
       </c>
     </row>
     <row r="261">
@@ -10160,7 +10104,7 @@
         </is>
       </c>
       <c r="B261">
-        <v>9035</v>
+        <v>8971</v>
       </c>
       <c r="C261">
         <v>4</v>
@@ -10175,23 +10119,23 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G261">
-        <v>6684.333333333334</v>
+        <v>4501</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>1889.666666666667</v>
       </c>
       <c r="K261">
-        <v>682.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -10201,7 +10145,7 @@
         </is>
       </c>
       <c r="B262">
-        <v>9035</v>
+        <v>8971</v>
       </c>
       <c r="C262">
         <v>4</v>
@@ -10216,23 +10160,23 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G262">
-        <v>7967.666666666668</v>
+        <v>5817.666666666667</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262">
-        <v>0</v>
+        <v>1864.666666666667</v>
       </c>
       <c r="K262">
-        <v>682.3333333333321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -10242,7 +10186,7 @@
         </is>
       </c>
       <c r="B263">
-        <v>9035</v>
+        <v>8971</v>
       </c>
       <c r="C263">
         <v>4</v>
@@ -10257,23 +10201,23 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G263">
-        <v>5951.000000000001</v>
+        <v>5767.666666666667</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263">
-        <v>0</v>
+        <v>1239.666666666666</v>
       </c>
       <c r="K263">
-        <v>365.6666666666661</v>
+        <v>782.333333333333</v>
       </c>
     </row>
     <row r="264">
@@ -10283,7 +10227,7 @@
         </is>
       </c>
       <c r="B264">
-        <v>9035</v>
+        <v>8971</v>
       </c>
       <c r="C264">
         <v>4</v>
@@ -10298,23 +10242,23 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G264">
-        <v>6917.666666666667</v>
+        <v>5026</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264">
-        <v>0</v>
+        <v>1306.333333333334</v>
       </c>
       <c r="K264">
-        <v>949.0000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -10324,7 +10268,7 @@
         </is>
       </c>
       <c r="B265">
-        <v>9035</v>
+        <v>8971</v>
       </c>
       <c r="C265">
         <v>4</v>
@@ -10339,23 +10283,23 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G265">
-        <v>7226</v>
+        <v>5684.333333333334</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265">
-        <v>1023.000000000001</v>
+        <v>748.9999999999991</v>
       </c>
       <c r="K265">
-        <v>0</v>
+        <v>3838.666666666667</v>
       </c>
     </row>
     <row r="266">
@@ -10365,38 +10309,30 @@
         </is>
       </c>
       <c r="B266">
-        <v>9039</v>
+        <v>8890</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Ord3_T1_L.wmv</t>
+          <t>Ord2_T1_L.wmv</t>
         </is>
       </c>
       <c r="E266">
         <v>1</v>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G266">
-        <v>5276</v>
-      </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266">
-        <v>2556.333333333333</v>
+        <v>0</v>
       </c>
       <c r="K266">
-        <v>657.3333333333339</v>
+        <v>390.666666666667</v>
       </c>
     </row>
     <row r="267">
@@ -10406,14 +10342,14 @@
         </is>
       </c>
       <c r="B267">
-        <v>9039</v>
+        <v>8890</v>
       </c>
       <c r="C267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Ord3_T2_R.wmv</t>
+          <t>Ord2_T2_R.wmv</t>
         </is>
       </c>
       <c r="E267">
@@ -10421,23 +10357,23 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G267">
-        <v>4667.666666666667</v>
+        <v>6051.000000000001</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267">
-        <v>1163.666666666666</v>
+        <v>0</v>
       </c>
       <c r="K267">
-        <v>732.333333333333</v>
+        <v>165.6666666666661</v>
       </c>
     </row>
     <row r="268">
@@ -10447,38 +10383,30 @@
         </is>
       </c>
       <c r="B268">
-        <v>9039</v>
+        <v>8890</v>
       </c>
       <c r="C268">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Ord3_T3_R.wmv</t>
+          <t>Ord2_T3_R.wmv</t>
         </is>
       </c>
       <c r="E268">
         <v>3</v>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G268">
-        <v>5134.333333333334</v>
-      </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
         <v>0</v>
       </c>
       <c r="J268">
-        <v>774</v>
+        <v>0</v>
       </c>
       <c r="K268">
-        <v>940.6666666666661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -10488,14 +10416,14 @@
         </is>
       </c>
       <c r="B269">
-        <v>9039</v>
+        <v>8890</v>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Ord3_T4_L.wmv</t>
+          <t>Ord2_T4_L.wmv</t>
         </is>
       </c>
       <c r="E269">
@@ -10511,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="K269">
-        <v>840.6666666666679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -10521,14 +10449,14 @@
         </is>
       </c>
       <c r="B270">
-        <v>9039</v>
+        <v>8890</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Ord3_T5_R.wmv</t>
+          <t>Ord2_T5_R.wmv</t>
         </is>
       </c>
       <c r="E270">
@@ -10540,19 +10468,19 @@
         </is>
       </c>
       <c r="G270">
-        <v>4851</v>
+        <v>5334.333333333334</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J270">
-        <v>1813.666666666667</v>
+        <v>757.333333333333</v>
       </c>
       <c r="K270">
-        <v>757.3333333333339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -10562,38 +10490,760 @@
         </is>
       </c>
       <c r="B271">
-        <v>9039</v>
+        <v>8890</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Ord3_T6_L.wmv</t>
+          <t>Ord2_T6_L.wmv</t>
         </is>
       </c>
       <c r="E271">
         <v>6</v>
       </c>
-      <c r="F271" t="inlineStr">
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>265.6666666666661</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B272">
+        <v>9022</v>
+      </c>
+      <c r="C272">
+        <v>4</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Ord4_T1_R.wmv</t>
+        </is>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G272">
+        <v>4959.333333333334</v>
+      </c>
+      <c r="H272">
+        <v>3</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>1206.333333333333</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B273">
+        <v>9022</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Ord4_T2_L.wmv</t>
+        </is>
+      </c>
+      <c r="E273">
+        <v>2</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G273">
+        <v>4742.666666666667</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>724</v>
+      </c>
+      <c r="K273">
+        <v>1855.333333333334</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B274">
+        <v>9022</v>
+      </c>
+      <c r="C274">
+        <v>4</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Ord4_T3_L.wmv</t>
+        </is>
+      </c>
+      <c r="E274">
+        <v>3</v>
+      </c>
+      <c r="F274" t="inlineStr">
         <is>
           <t>incongruent</t>
         </is>
       </c>
-      <c r="G271">
+      <c r="G274">
+        <v>7084.333333333334</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>924</v>
+      </c>
+      <c r="K274">
+        <v>1157.333333333334</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B275">
+        <v>9022</v>
+      </c>
+      <c r="C275">
+        <v>4</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Ord4_T4_R.wmv</t>
+        </is>
+      </c>
+      <c r="E275">
+        <v>4</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G275">
+        <v>8751</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>315.6666666666679</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B276">
+        <v>9022</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Ord4_T5_L.wmv</t>
+        </is>
+      </c>
+      <c r="E276">
+        <v>5</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G276">
+        <v>5792.666666666667</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+      <c r="I276">
+        <v>2</v>
+      </c>
+      <c r="J276">
+        <v>657.3333333333339</v>
+      </c>
+      <c r="K276">
+        <v>1273.000000000001</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B277">
+        <v>9022</v>
+      </c>
+      <c r="C277">
+        <v>4</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Ord4_T6_R.wmv</t>
+        </is>
+      </c>
+      <c r="E277">
+        <v>6</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G277">
+        <v>6109.333333333334</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B278">
+        <v>9035</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Ord4_T1_R.wmv</t>
+        </is>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G278">
+        <v>6776.000000000001</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>340.6666666666661</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B279">
+        <v>9035</v>
+      </c>
+      <c r="C279">
+        <v>4</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Ord4_T2_L.wmv</t>
+        </is>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G279">
+        <v>6684.333333333334</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>682.333333333333</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B280">
+        <v>9035</v>
+      </c>
+      <c r="C280">
+        <v>4</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Ord4_T3_L.wmv</t>
+        </is>
+      </c>
+      <c r="E280">
+        <v>3</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G280">
+        <v>7967.666666666668</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>682.3333333333321</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B281">
+        <v>9035</v>
+      </c>
+      <c r="C281">
+        <v>4</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Ord4_T4_R.wmv</t>
+        </is>
+      </c>
+      <c r="E281">
+        <v>4</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G281">
+        <v>5951.000000000001</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>365.6666666666661</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B282">
+        <v>9035</v>
+      </c>
+      <c r="C282">
+        <v>4</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Ord4_T5_L.wmv</t>
+        </is>
+      </c>
+      <c r="E282">
+        <v>5</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G282">
+        <v>6917.666666666667</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B283">
+        <v>9035</v>
+      </c>
+      <c r="C283">
+        <v>4</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Ord4_T6_R.wmv</t>
+        </is>
+      </c>
+      <c r="E283">
+        <v>6</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G283">
+        <v>7226</v>
+      </c>
+      <c r="H283">
+        <v>2</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>1023.000000000001</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B284">
+        <v>9039</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Ord3_T1_L.wmv</t>
+        </is>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G284">
+        <v>5276</v>
+      </c>
+      <c r="H284">
+        <v>2</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>765.6666666666661</v>
+      </c>
+      <c r="K284">
+        <v>657.3333333333339</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B285">
+        <v>9039</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Ord3_T2_R.wmv</t>
+        </is>
+      </c>
+      <c r="E285">
+        <v>2</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G285">
+        <v>4667.666666666667</v>
+      </c>
+      <c r="H285">
+        <v>3</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>1163.666666666666</v>
+      </c>
+      <c r="K285">
+        <v>732.333333333333</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B286">
+        <v>9039</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Ord3_T3_R.wmv</t>
+        </is>
+      </c>
+      <c r="E286">
+        <v>3</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G286">
+        <v>5134.333333333334</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>774</v>
+      </c>
+      <c r="K286">
+        <v>940.6666666666661</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B287">
+        <v>9039</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Ord3_T4_L.wmv</t>
+        </is>
+      </c>
+      <c r="E287">
+        <v>4</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>840.6666666666679</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B288">
+        <v>9039</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Ord3_T5_R.wmv</t>
+        </is>
+      </c>
+      <c r="E288">
+        <v>5</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G288">
+        <v>4851</v>
+      </c>
+      <c r="H288">
+        <v>2</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>1813.666666666667</v>
+      </c>
+      <c r="K288">
+        <v>757.3333333333339</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>elp-georgetown</t>
+        </is>
+      </c>
+      <c r="B289">
+        <v>9039</v>
+      </c>
+      <c r="C289">
+        <v>3</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Ord3_T6_L.wmv</t>
+        </is>
+      </c>
+      <c r="E289">
+        <v>6</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G289">
         <v>5026</v>
       </c>
-      <c r="H271">
-        <v>2</v>
-      </c>
-      <c r="I271">
-        <v>1</v>
-      </c>
-      <c r="J271">
+      <c r="H289">
+        <v>2</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
         <v>831.3333333333349</v>
       </c>
-      <c r="K271">
-        <v>2349</v>
+      <c r="K289">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
